--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63B2609-C38C-4547-9D1C-31B9F8701881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -309,14 +308,16 @@
     <t>CdCode.AmlCheckItem
 0:非可疑名單/已完成名單確認
 1:需審查/確認
-2:為凍結名單/未確定名單</t>
+2:為凍結名單/未確定名單
+D:已刪除
+E:不處理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11">
     <font>
       <sz val="12"/>
@@ -581,7 +582,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -672,23 +673,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -724,23 +708,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -916,11 +883,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1316,7 +1283,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" ht="64.8">
+    <row r="24" spans="1:7" ht="96.6" customHeight="1">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -1421,7 +1388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -200,12 +200,6 @@
     <t>varchar2</t>
   </si>
   <si>
-    <t>AmlRsp</t>
-  </si>
-  <si>
-    <t>AML回應碼</t>
-  </si>
-  <si>
     <t>BatchNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -305,12 +299,20 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.AmlCheckItem
+    <t>AmlRsp</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AML回應碼</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CdCode.AmlCheckItem
 0:非可疑名單/已完成名單確認
 1:需審查/確認
 2:為凍結名單/未確定名單
-D:已刪除
-E:不處理</t>
+D:刪除
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +889,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -920,7 +922,7 @@
       <c r="A2" s="28"/>
       <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -935,7 +937,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1022,7 +1024,7 @@
         <v>40</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="23">
         <v>8</v>
@@ -1034,7 +1036,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>41</v>
@@ -1100,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1126,7 +1128,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>24</v>
@@ -1144,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E16" s="23">
         <v>8</v>
@@ -1162,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>37</v>
@@ -1180,7 +1182,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>26</v>
@@ -1198,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>27</v>
@@ -1216,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="22" t="s">
         <v>28</v>
@@ -1234,7 +1236,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>29</v>
@@ -1252,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>30</v>
@@ -1283,15 +1285,15 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" ht="96.6" customHeight="1">
+    <row r="24" spans="1:7" ht="82.2" customHeight="1">
       <c r="A24" s="19">
         <v>15</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>48</v>
@@ -1308,13 +1310,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>62</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="E25" s="23"/>
       <c r="G25" s="24"/>
@@ -1324,13 +1326,13 @@
         <v>17</v>
       </c>
       <c r="B26" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="E26" s="23">
         <v>6</v>
@@ -1342,13 +1344,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="23"/>
       <c r="G27" s="24"/>
@@ -1358,13 +1360,13 @@
         <v>19</v>
       </c>
       <c r="B28" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>70</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>72</v>
       </c>
       <c r="E28" s="23">
         <v>6</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -314,6 +314,10 @@
 D:刪除
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode代碼檔：BankRmftCode</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -888,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1175,7 +1179,9 @@
       <c r="E17" s="23">
         <v>4</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="24" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="19">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -1,70 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB501A-B4EF-414F-B1B9-0896889697F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他ORDER條件</t>
+  </si>
+  <si>
+    <t>Uni</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>其他ORDER條件</t>
-  </si>
-  <si>
-    <t>Uni</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Index1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ForeignKey1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>欄位名稱</t>
   </si>
   <si>
@@ -84,19 +95,19 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RepayAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
@@ -124,167 +135,167 @@
   </si>
   <si>
     <t>結餘</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>匯款銀行代碼</t>
   </si>
   <si>
     <t>交易人資料</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>摘要代碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>TraderInfo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>會計日</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>批號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>明細序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>BankRmtf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DetailSeq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>匯款轉帳檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
   </si>
   <si>
     <t>BatchNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AcDate,BatchNo,DetailSeq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DepAcctNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DscptCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>VirtualAcctNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>WithdrawAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DepositAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Balance</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>RemintBank</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.RepayType
@@ -296,15 +307,15 @@
 6:契變手續費
 7:法務費
 9:其他</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AmlRsp</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>AML回應碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CdCode.AmlCheckItem
@@ -313,23 +324,65 @@
 2:為凍結名單/未確定名單
 D:刪除
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CdCode代碼檔：BankRmftCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTlrNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>經辦</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaTxtNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReconCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>對帳類別</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易序號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>轉AS400匯款轉帳檔的存摺代號(舊資料有01,02,03,13亦新增代碼但目前已不使用)
+CdCode.ReconCode
+P01:銀行存款－郵局
+C01:暫收款－非核心運用
+A1~A7:  (帳務:P03:銀行存款－新光)
+TEM:員工扣薪15/非15
+TCK:支票</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -480,115 +533,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{733B8E6E-9B61-4ED7-8A17-C366B4837CD2}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{B1C6A743-297F-4AAE-9B14-C3919C1B1937}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -679,6 +752,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -714,6 +804,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -889,11 +996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -908,10 +1015,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
@@ -923,8 +1030,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
         <v>71</v>
       </c>
@@ -936,10 +1043,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
@@ -951,10 +1058,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -962,10 +1069,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="12"/>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -973,10 +1080,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3"/>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -984,10 +1091,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1311,73 +1418,129 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="129.6">
       <c r="A25" s="19">
         <v>16</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="31">
+        <v>3</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="28">
+        <v>17</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="28">
+        <v>6</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="28">
+        <v>18</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="28">
+        <v>8</v>
+      </c>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="28">
+        <v>19</v>
+      </c>
+      <c r="B28" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C28" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D28" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>17</v>
-      </c>
-      <c r="B26" s="26" t="s">
+      <c r="E28" s="23"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="28">
+        <v>20</v>
+      </c>
+      <c r="B29" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C29" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D29" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E29" s="23">
         <v>6</v>
       </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>18</v>
-      </c>
-      <c r="B27" s="26" t="s">
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="28">
+        <v>21</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C30" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D30" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>19</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="E30" s="23"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="28">
+        <v>22</v>
+      </c>
+      <c r="B31" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D31" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E31" s="23">
         <v>6</v>
       </c>
-      <c r="G28" s="24"/>
+      <c r="G31" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1389,14 +1552,14 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -1424,7 +1587,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CB501A-B4EF-414F-B1B9-0896889697F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D2CC5-240E-41D1-8858-4D5051755C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,15 +318,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CdCode.AmlCheckItem
-0:非可疑名單/已完成名單確認
-1:需審查/確認
-2:為凍結名單/未確定名單
-D:刪除
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CdCode代碼檔：BankRmftCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -363,6 +354,15 @@
 TEM:員工扣薪15/非15
 TCK:支票</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CdCode.AmlCheckItem
+0:非可疑名單/已完成名單確認
+1:需審查/確認
+2:為凍結名單/未確定名單
+D:匯款轉帳檔已刪除
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1287,7 +1287,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1415,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="129.6">
@@ -1423,10 +1423,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="D25" s="30" t="s">
         <v>45</v>
@@ -1435,7 +1435,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1443,10 +1443,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>78</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>33</v>
@@ -1461,10 +1461,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>33</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4D2CC5-240E-41D1-8858-4D5051755C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -364,11 +363,19 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTxSeqFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -659,9 +666,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{733B8E6E-9B61-4ED7-8A17-C366B4837CD2}"/>
-    <cellStyle name="一般 2 3" xfId="2" xr:uid="{B1C6A743-297F-4AAE-9B14-C3919C1B1937}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 2 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,23 +759,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -804,23 +794,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -996,11 +969,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1559,12 +1532,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1586,6 +1559,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B5D62-225D-46A6-BA49-57FAA6D384E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -333,10 +324,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>ReconCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>對帳類別</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -371,11 +358,27 @@
     <t>findTxSeqFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>findEntryDate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReconCode</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EntryDate &gt;= ,AND AcDate &lt;= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳後更新</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="12"/>
@@ -554,7 +557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -570,10 +573,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -585,9 +588,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -600,9 +600,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,12 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -666,9 +657,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,6 +750,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -794,6 +802,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -969,29 +994,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
@@ -1003,78 +1028,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1093,427 +1118,431 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="21">
         <v>8</v>
       </c>
-      <c r="G9" s="24"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="21">
         <v>6</v>
       </c>
-      <c r="G10" s="24"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>6</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="22"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>3</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>7</v>
       </c>
-      <c r="G12" s="24"/>
+      <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" ht="145.80000000000001">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>2</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>5</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>14</v>
       </c>
-      <c r="G14" s="24"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>6</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>14</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>7</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>8</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>8</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>4</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>9</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>14</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>10</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>14</v>
       </c>
-      <c r="G19" s="24"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>11</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>14</v>
       </c>
-      <c r="G20" s="24"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>12</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>14</v>
       </c>
-      <c r="G21" s="24"/>
+      <c r="G21" s="22"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>13</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>7</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>14</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>20</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="22"/>
     </row>
     <row r="24" spans="1:7" ht="82.2" customHeight="1">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>15</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>1</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>83</v>
+      <c r="G24" s="25" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="129.6">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>16</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="D25" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="27">
+        <v>3</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17">
+        <v>17</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="17">
+        <v>6</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17">
+        <v>18</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="31">
-        <v>3</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="28">
-        <v>17</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="25" t="s">
+      <c r="D27" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E27" s="17">
+        <v>8</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17">
+        <v>19</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17">
+        <v>20</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="21">
         <v>6</v>
       </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="28">
-        <v>18</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="28">
-        <v>8</v>
-      </c>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="28">
-        <v>19</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="26" t="s">
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17">
+        <v>21</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="23"/>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="28">
-        <v>20</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="23">
+      <c r="E30" s="21"/>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="17">
+        <v>22</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="21">
         <v>6</v>
       </c>
-      <c r="G29" s="24"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="28">
-        <v>21</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="23"/>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="28">
-        <v>22</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="23">
-        <v>6</v>
-      </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1532,12 +1561,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1561,10 +1590,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B5D62-225D-46A6-BA49-57FAA6D384E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5A8F15-FF0B-4DCC-A682-984CC526D278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -164,10 +164,6 @@
   <si>
     <t>DECIMAL</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>會計日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>批號</t>
@@ -351,10 +347,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findTxSeqFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -373,13 +365,33 @@
   <si>
     <t>入帳後更新</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaEntdy</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳後更新</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料會計日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>作帳日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaEntdy = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -467,6 +479,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="思源宋體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -557,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,6 +660,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -995,10 +1023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1013,25 +1041,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1041,12 +1069,12 @@
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>17</v>
@@ -1056,10 +1084,10 @@
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
@@ -1067,10 +1095,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
@@ -1078,10 +1106,10 @@
       <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
@@ -1089,10 +1117,10 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3"/>
       <c r="D7" s="12"/>
       <c r="E7" s="5"/>
@@ -1127,13 +1155,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="21">
         <v>8</v>
@@ -1145,10 +1173,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>33</v>
@@ -1163,10 +1191,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>39</v>
@@ -1211,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1237,13 +1265,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E15" s="21">
         <v>14</v>
@@ -1255,13 +1283,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="21">
         <v>8</v>
@@ -1273,7 +1301,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>37</v>
@@ -1285,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1293,7 +1321,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>26</v>
@@ -1311,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>27</v>
@@ -1329,7 +1357,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>28</v>
@@ -1347,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>29</v>
@@ -1365,7 +1393,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>30</v>
@@ -1401,19 +1429,19 @@
         <v>15</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>74</v>
-      </c>
       <c r="D24" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" s="17">
         <v>1</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="129.6">
@@ -1421,36 +1449,36 @@
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="27">
         <v>3</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17">
         <v>17</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>33</v>
+      <c r="B26" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>58</v>
       </c>
       <c r="E26" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G26" s="22" t="s">
         <v>88</v>
@@ -1461,53 +1489,55 @@
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>33</v>
       </c>
       <c r="E27" s="17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17">
         <v>19</v>
       </c>
-      <c r="B28" s="24" t="s">
-        <v>60</v>
+      <c r="B28" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="G28" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="17">
+        <v>8</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17">
         <v>20</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="21">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E29" s="21"/>
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7">
@@ -1515,15 +1545,17 @@
         <v>21</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="21"/>
+        <v>64</v>
+      </c>
+      <c r="E30" s="21">
+        <v>6</v>
+      </c>
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7">
@@ -1531,18 +1563,34 @@
         <v>22</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="17">
+        <v>23</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="D32" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="21">
+      <c r="E32" s="21">
         <v>6</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1566,7 +1614,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1590,18 +1638,18 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5A8F15-FF0B-4DCC-A682-984CC526D278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56285A-64C0-4A6C-B268-B56AB2494AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,12 +379,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>作帳日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>TitaEntdy = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳會計日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1472,7 +1472,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>58</v>
@@ -1641,7 +1641,7 @@
         <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E56285A-64C0-4A6C-B268-B56AB2494AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E529D3B2-F6E0-4A23-825C-1C4E813F5439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -247,10 +247,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -386,12 +382,15 @@
     <t>入帳會計日</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -703,9 +702,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,9 +742,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,26 +777,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -830,26 +812,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1025,11 +990,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1040,7 +1005,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>7</v>
       </c>
@@ -1055,11 +1020,11 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31"/>
       <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1068,7 +1033,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1048,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1059,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
@@ -1105,7 +1070,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1081,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
@@ -1127,7 +1092,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1158,7 +1123,7 @@
         <v>42</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>58</v>
@@ -1168,7 +1133,7 @@
       </c>
       <c r="G9" s="22"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1186,7 +1151,7 @@
       </c>
       <c r="G10" s="22"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>2</v>
       </c>
@@ -1204,7 +1169,7 @@
       </c>
       <c r="G11" s="22"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>3</v>
       </c>
@@ -1222,7 +1187,7 @@
       </c>
       <c r="G12" s="22"/>
     </row>
-    <row r="13" spans="1:7" ht="145.80000000000001">
+    <row r="13" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>4</v>
       </c>
@@ -1239,10 +1204,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>5</v>
       </c>
@@ -1260,7 +1225,7 @@
       </c>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>6</v>
       </c>
@@ -1278,7 +1243,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>7</v>
       </c>
@@ -1296,7 +1261,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>8</v>
       </c>
@@ -1313,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>9</v>
       </c>
@@ -1334,7 +1299,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>10</v>
       </c>
@@ -1352,7 +1317,7 @@
       </c>
       <c r="G19" s="22"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>11</v>
       </c>
@@ -1370,7 +1335,7 @@
       </c>
       <c r="G20" s="22"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>12</v>
       </c>
@@ -1388,7 +1353,7 @@
       </c>
       <c r="G21" s="22"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>13</v>
       </c>
@@ -1406,7 +1371,7 @@
       </c>
       <c r="G22" s="22"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>14</v>
       </c>
@@ -1424,15 +1389,15 @@
       </c>
       <c r="G23" s="22"/>
     </row>
-    <row r="24" spans="1:7" ht="82.2" customHeight="1">
+    <row r="24" spans="1:7" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>15</v>
       </c>
       <c r="B24" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>73</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>47</v>
@@ -1441,18 +1406,18 @@
         <v>1</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="129.6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="26" t="s">
         <v>44</v>
@@ -1461,18 +1426,18 @@
         <v>3</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>17</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D26" s="28" t="s">
         <v>58</v>
@@ -1481,18 +1446,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>76</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>33</v>
@@ -1501,18 +1466,18 @@
         <v>6</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>33</v>
@@ -1521,10 +1486,10 @@
         <v>8</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>20</v>
       </c>
@@ -1535,57 +1500,57 @@
         <v>60</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E29" s="21"/>
       <c r="G29" s="22"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>21</v>
       </c>
       <c r="B30" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="D30" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>64</v>
       </c>
       <c r="E30" s="21">
         <v>6</v>
       </c>
       <c r="G30" s="22"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>22</v>
       </c>
       <c r="B31" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="D31" s="24" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="E31" s="21"/>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>23</v>
       </c>
       <c r="B32" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="24" t="s">
         <v>68</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>69</v>
       </c>
       <c r="E32" s="21">
         <v>6</v>
@@ -1617,7 +1582,7 @@
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -1625,7 +1590,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1636,20 +1601,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BankRmtf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E529D3B2-F6E0-4A23-825C-1C4E813F5439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93642E9B-A28F-49D5-8754-0F892760A643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,51 +21,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他ORDER條件</t>
+  </si>
+  <si>
+    <t>Uni</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>其他ORDER條件</t>
-  </si>
-  <si>
-    <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForeignKey1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>欄位名稱</t>
   </si>
   <si>
@@ -85,19 +85,19 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>RepayType</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>RepayAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
@@ -125,159 +125,159 @@
   </si>
   <si>
     <t>結餘</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>匯款銀行代碼</t>
   </si>
   <si>
     <t>交易人資料</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>摘要代碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TraderInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>批號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>明細序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>AcDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>BankRmtf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DetailSeq</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>匯款轉帳檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>varchar2</t>
   </si>
   <si>
     <t>BatchNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>AcDate,BatchNo,DetailSeq</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DepAcctNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EntryDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DscptCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>VirtualAcctNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>WithdrawAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>DepositAmt</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Balance</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>RemintBank</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Decimald</t>
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Key ID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CdCode.RepayType
@@ -289,39 +289,39 @@
 6:契變手續費
 7:法務費
 9:其他</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>AmlRsp</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>AML回應碼</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>CdCode代碼檔：BankRmftCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TitaTlrNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>經辦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TitaTxtNo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>對帳類別</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>交易序號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>轉AS400匯款轉帳檔的存摺代號(舊資料有01,02,03,13亦新增代碼但目前已不使用)
@@ -331,7 +331,7 @@
 A1~A7:  (帳務:P03:銀行存款－新光)
 TEM:員工扣薪15/非15
 TCK:支票</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CdCode.AmlCheckItem
@@ -340,62 +340,125 @@
 2:為凍結名單/未確定名單
 D:匯款轉帳檔已刪除
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findTxSeqFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>findEntryDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReconCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EntryDate &gt;= ,AND AcDate &lt;= </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳後更新</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>TitaEntdy</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>入帳後更新</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料會計日</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ReconCode</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EntryDate &gt;= ,AND AcDate &lt;= </t>
+    <t>TitaEntdy = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>入帳後更新</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaEntdy</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>入帳後更新</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料會計日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>TitaEntdy = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>入帳會計日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>清償原因</t>
+  </si>
+  <si>
+    <t>2023-09-20 Wei
+from SKL IT 佳怡
+LA$DPSP.APLPSN</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseReasonCode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseFacmNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>清償額度號碼</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-20 Wei
+from SKL IT 佳怡
+LA$DPSP.DPSAPN</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BranchNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>單位別</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dpssts</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業方式</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-20 Wei
+from SKL IT 佳怡
+LA$DPSP.CUSBRH</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-09-20 Wei
+from SKL IT 佳怡
+LA$DPSP.DPSSTS</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -561,132 +624,167 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="12">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="7" xr:uid="{389A8212-90AF-4BC5-9204-CBDA897F1A74}"/>
+    <cellStyle name="一般 2 2 2 2" xfId="11" xr:uid="{94B60918-AE3F-45CC-A46E-AA47E1024669}"/>
+    <cellStyle name="一般 2 2 3" xfId="9" xr:uid="{2348C6A4-B956-43AF-A129-ADD31A6B590F}"/>
+    <cellStyle name="一般 2 2 4" xfId="5" xr:uid="{54BD1A8F-88B4-4E47-8DE1-6D4C5B56D439}"/>
     <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3 2" xfId="10" xr:uid="{4CAAF645-B28E-44BC-BBF2-6E4115CA9152}"/>
+    <cellStyle name="一般 2 3 3" xfId="6" xr:uid="{565737AC-986F-42D3-A313-EC13C0FAB61F}"/>
+    <cellStyle name="一般 2 4" xfId="8" xr:uid="{D3D2CF63-5F8E-4BDA-9517-AC474F2093CD}"/>
+    <cellStyle name="一般 2 5" xfId="4" xr:uid="{32A08E67-F06B-4E56-950D-251E0F5F1C58}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -988,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1557,6 +1655,90 @@
       </c>
       <c r="G32" s="22"/>
     </row>
+    <row r="33" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>24</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="21">
+        <v>2</v>
+      </c>
+      <c r="G33" s="22"/>
+      <c r="H33" s="35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>25</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="21">
+        <v>3</v>
+      </c>
+      <c r="G34" s="22"/>
+      <c r="H34" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>26</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="21">
+        <v>3</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>27</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="35" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
@@ -1567,7 +1749,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1618,7 +1800,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
